--- a/W9/Excel/SWP391-OnlineShopping-Project Tracking.xlsx
+++ b/W9/Excel/SWP391-OnlineShopping-Project Tracking.xlsx
@@ -197,9 +197,6 @@
     <t>Product Detail</t>
   </si>
   <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
     <t>Search Account</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Lê Sỹ Thái - HE160614</t>
+  </si>
+  <si>
+    <t>Notification</t>
   </si>
 </sst>
 </file>
@@ -805,8 +805,8 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
     <row r="5" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -873,7 +873,7 @@
       <c r="G5" s="40"/>
       <c r="J5" s="39"/>
       <c r="K5" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>10</v>
@@ -1160,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>10</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>5</v>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>5</v>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>21</v>
@@ -1321,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>21</v>
@@ -1342,11 +1342,11 @@
     <row r="17" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="37"/>
       <c r="K17" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1503,25 +1503,25 @@
       <c r="G21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="14">
         <v>3</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="O21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1551,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>25</v>
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>5</v>
@@ -1603,7 +1603,7 @@
       <c r="M23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="17" t="s">
         <v>45</v>
       </c>
       <c r="O23" s="14" t="s">
@@ -1638,8 +1638,8 @@
       <c r="J24" s="14">
         <v>6</v>
       </c>
-      <c r="K24" s="14" t="s">
-        <v>61</v>
+      <c r="K24" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>5</v>
@@ -1682,16 +1682,16 @@
       <c r="J25" s="14">
         <v>7</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>50</v>
+      <c r="K25" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="23" t="s">
         <v>45</v>
       </c>
       <c r="O25" s="14" t="s">
@@ -1726,14 +1726,14 @@
       <c r="J26" s="14">
         <v>8</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>51</v>
+      <c r="K26" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>45</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="29" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>53</v>
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>5</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>10</v>
@@ -1937,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>5</v>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>5</v>
@@ -1983,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>21</v>
